--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -384,7 +384,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -392,34 +392,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.7578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2525,273 +2526,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B2D63A-DC16-43A5-B270-14B8DF39EA5F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33567935-B8CA-43E2-8E90-3A1637A494F5}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55E5825D-9DF0-4E9D-BBC1-1AE8ACB8BCED}"/>
 </file>
--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -321,6 +336,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -409,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -421,6 +439,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,225 +461,261 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -682,1845 +737,2124 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,64 +32,67 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -738,2123 +741,2123 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,22 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
+  </si>
+  <si>
+    <t>Autorizzazione del tribunale</t>
   </si>
   <si>
     <t>Formula</t>
@@ -341,7 +344,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -430,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -442,7 +445,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +542,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -562,13 +565,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -585,13 +588,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -608,7 +611,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -631,7 +634,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -654,7 +657,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -677,7 +680,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -700,7 +703,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -722,2142 +725,2165 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>31</v>
+      <c r="C106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1393,19 +1399,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1416,19 +1422,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1439,19 +1445,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1462,19 +1468,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1491,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1514,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1537,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1554,19 +1560,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1583,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1606,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1629,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1652,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1675,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1721,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1744,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1767,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1790,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1813,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1836,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1859,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1882,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1902,16 +1908,16 @@
         <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1925,7 +1931,7 @@
         <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
@@ -1934,7 +1940,7 @@
         <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1945,10 +1951,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -1957,7 +1963,7 @@
         <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2037,10 +2043,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>19</v>
@@ -2049,7 +2055,7 @@
         <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2060,10 +2066,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
@@ -2072,7 +2078,7 @@
         <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2106,7 +2112,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
@@ -2115,10 +2121,10 @@
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2181,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2221,10 +2227,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2233,7 +2239,7 @@
         <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2244,10 +2250,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2256,7 +2262,7 @@
         <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2273,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2290,599 +2296,668 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -350,7 +350,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -451,7 +454,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2851,7 +2854,7 @@
         <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
@@ -2871,19 +2874,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2897,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>22</v>
@@ -2917,10 +2920,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
@@ -2929,7 +2932,7 @@
         <v>30</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2940,10 +2943,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
@@ -2952,7 +2955,7 @@
         <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2854,7 +2851,7 @@
         <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
@@ -2874,19 +2871,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2894,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>22</v>
@@ -2920,10 +2917,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
@@ -2932,7 +2929,7 @@
         <v>30</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2943,10 +2940,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
@@ -2955,7 +2952,7 @@
         <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2851,7 +2854,7 @@
         <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
@@ -2871,19 +2874,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2897,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>22</v>
@@ -2917,10 +2920,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
@@ -2929,7 +2932,7 @@
         <v>30</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2940,10 +2943,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
@@ -2952,7 +2955,7 @@
         <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,36 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -442,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -452,7 +482,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1954,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2069,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2191,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2237,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2260,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2283,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2306,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2345,622 +2375,829 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E108" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="2" t="s">
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -2427,7 +2427,7 @@
         <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>103</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -152,6 +152,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -206,13 +212,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1455,19 +1461,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1478,19 +1484,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1507,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1530,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1553,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1576,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1599,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1622,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1645,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1668,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1691,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1714,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1737,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1760,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1783,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1806,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1829,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1852,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1898,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1921,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1944,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2013,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2036,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2059,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2082,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2105,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,10 +2151,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2157,7 +2163,7 @@
         <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2220,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2243,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,10 +2266,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
@@ -2272,7 +2278,7 @@
         <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,7 +2289,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>50</v>
@@ -2292,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>51</v>
@@ -2306,19 +2312,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2381,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2404,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2427,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2450,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2473,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2496,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2519,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,10 +2542,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2548,7 +2554,7 @@
         <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,10 +2565,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2571,7 +2577,7 @@
         <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,622 +2588,714 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="2" t="s">
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1484,19 +1490,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1513,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1990,19 +1996,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2042,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2065,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2088,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2111,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2134,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2197,10 +2203,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2209,7 +2215,7 @@
         <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2249,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2272,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2312,10 +2318,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>19</v>
@@ -2324,7 +2330,7 @@
         <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2335,10 +2341,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>19</v>
@@ -2347,7 +2353,7 @@
         <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2381,7 +2387,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>113</v>
@@ -2390,10 +2396,10 @@
         <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2433,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2456,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2479,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2502,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2525,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2548,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2571,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2594,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2611,10 +2617,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2623,7 +2629,7 @@
         <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2634,10 +2640,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2646,7 +2652,7 @@
         <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2657,645 +2663,714 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1513,19 +1519,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1703,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2002,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2048,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2117,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2140,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2163,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2209,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2249,10 +2255,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2261,7 +2267,7 @@
         <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2324,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2364,10 +2370,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
@@ -2376,7 +2382,7 @@
         <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2387,10 +2393,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>19</v>
@@ -2399,7 +2405,7 @@
         <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2416,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2433,7 +2439,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>115</v>
@@ -2442,10 +2448,10 @@
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2462,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2508,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2525,19 +2531,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2554,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2571,19 +2577,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2594,19 +2600,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2617,19 +2623,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2663,10 +2669,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2675,7 +2681,7 @@
         <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2686,10 +2692,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2698,7 +2704,7 @@
         <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2709,668 +2715,737 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -131,6 +131,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -206,9 +296,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -296,6 +383,15 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -341,9 +437,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -401,9 +494,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -432,6 +522,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -490,16 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -924,22 +1020,22 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -947,22 +1043,22 @@
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -970,22 +1066,22 @@
         <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -993,22 +1089,22 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1016,22 +1112,22 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -1039,22 +1135,22 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
@@ -1062,22 +1158,22 @@
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1085,22 +1181,22 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1108,22 +1204,22 @@
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1131,22 +1227,22 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
@@ -1154,22 +1250,22 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
@@ -1177,22 +1273,22 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1200,39 +1296,39 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1243,19 +1339,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1266,19 +1362,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1289,19 +1385,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1312,19 +1408,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1335,19 +1431,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1358,19 +1454,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1381,19 +1477,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1404,19 +1500,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1427,19 +1523,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1450,19 +1546,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1473,19 +1569,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1496,19 +1592,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1519,19 +1615,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1542,19 +1638,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1661,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1684,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1707,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1730,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1657,19 +1753,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1776,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1799,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1822,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1845,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1868,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1891,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1914,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1841,617 +1937,617 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2462,19 +2558,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2485,19 +2581,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2508,19 +2604,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2627,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2650,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2673,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2600,19 +2696,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2719,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2742,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2669,19 +2765,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2692,19 +2788,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2715,19 +2811,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2738,19 +2834,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2761,617 +2857,617 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3382,22 +3478,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>32</v>
@@ -3405,19 +3501,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3428,24 +3524,944 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="B134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D139" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -586,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2262,7 +2262,7 @@
         <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2271,7 +2271,7 @@
         <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2285,7 +2285,7 @@
         <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2294,7 +2294,7 @@
         <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2308,7 +2308,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2331,7 +2331,7 @@
         <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2340,7 +2340,7 @@
         <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2354,7 +2354,7 @@
         <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2363,7 +2363,7 @@
         <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2377,7 +2377,7 @@
         <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2386,7 +2386,7 @@
         <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2400,7 +2400,7 @@
         <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2409,7 +2409,7 @@
         <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2423,7 +2423,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2432,7 +2432,7 @@
         <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2446,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2455,7 +2455,7 @@
         <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2469,7 +2469,7 @@
         <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2478,7 +2478,7 @@
         <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2492,7 +2492,7 @@
         <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2501,7 +2501,7 @@
         <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2512,25 +2512,25 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -2538,16 +2538,16 @@
         <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2561,16 +2561,16 @@
         <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2584,16 +2584,16 @@
         <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2607,7 +2607,7 @@
         <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>19</v>
@@ -2616,7 +2616,7 @@
         <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2630,7 +2630,7 @@
         <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
@@ -2639,7 +2639,7 @@
         <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2653,7 +2653,7 @@
         <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
@@ -2662,7 +2662,7 @@
         <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2676,16 +2676,16 @@
         <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2699,7 +2699,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2708,7 +2708,7 @@
         <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2722,7 +2722,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2731,7 +2731,7 @@
         <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2745,7 +2745,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2754,7 +2754,7 @@
         <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2768,7 +2768,7 @@
         <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2777,7 +2777,7 @@
         <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2791,16 +2791,16 @@
         <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2814,7 +2814,7 @@
         <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
@@ -2823,7 +2823,7 @@
         <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2837,16 +2837,16 @@
         <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2860,7 +2860,7 @@
         <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2869,7 +2869,7 @@
         <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2883,7 +2883,7 @@
         <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2892,7 +2892,7 @@
         <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2906,7 +2906,7 @@
         <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2915,7 +2915,7 @@
         <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2929,7 +2929,7 @@
         <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2938,7 +2938,7 @@
         <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2952,7 +2952,7 @@
         <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2961,7 +2961,7 @@
         <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2975,7 +2975,7 @@
         <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2984,7 +2984,7 @@
         <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2998,7 +2998,7 @@
         <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3007,7 +3007,7 @@
         <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3021,7 +3021,7 @@
         <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3030,7 +3030,7 @@
         <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3044,16 +3044,16 @@
         <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3067,7 +3067,7 @@
         <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
@@ -3076,7 +3076,7 @@
         <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3090,7 +3090,7 @@
         <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
@@ -3099,7 +3099,7 @@
         <v>127</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3113,16 +3113,16 @@
         <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3136,7 +3136,7 @@
         <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3145,7 +3145,7 @@
         <v>127</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3159,7 +3159,7 @@
         <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3168,7 +3168,7 @@
         <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3182,7 +3182,7 @@
         <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3191,7 +3191,7 @@
         <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3205,7 +3205,7 @@
         <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3214,7 +3214,7 @@
         <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3225,19 +3225,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3251,16 +3251,16 @@
         <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3274,16 +3274,16 @@
         <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3297,7 +3297,7 @@
         <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3306,7 +3306,7 @@
         <v>63</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3320,16 +3320,16 @@
         <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3343,16 +3343,16 @@
         <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3366,7 +3366,7 @@
         <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>19</v>
@@ -3375,7 +3375,7 @@
         <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3389,16 +3389,16 @@
         <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3412,7 +3412,7 @@
         <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
@@ -3421,7 +3421,7 @@
         <v>63</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3435,16 +3435,16 @@
         <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3458,7 +3458,7 @@
         <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>19</v>
@@ -3467,7 +3467,7 @@
         <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3481,16 +3481,16 @@
         <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3504,7 +3504,7 @@
         <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3513,7 +3513,7 @@
         <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3536,7 +3536,7 @@
         <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3550,7 +3550,7 @@
         <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3559,7 +3559,7 @@
         <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3573,16 +3573,16 @@
         <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3596,16 +3596,16 @@
         <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3619,7 +3619,7 @@
         <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3628,7 +3628,7 @@
         <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3642,7 +3642,7 @@
         <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3651,7 +3651,7 @@
         <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3665,7 +3665,7 @@
         <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3674,7 +3674,7 @@
         <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3688,16 +3688,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3711,7 +3711,7 @@
         <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3720,7 +3720,7 @@
         <v>63</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3731,25 +3731,25 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138">
@@ -3757,19 +3757,19 @@
         <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>159</v>
@@ -3780,16 +3780,16 @@
         <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3803,16 +3803,16 @@
         <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3826,7 +3826,7 @@
         <v>156</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>19</v>
@@ -3835,7 +3835,7 @@
         <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3849,7 +3849,7 @@
         <v>156</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>19</v>
@@ -3858,7 +3858,7 @@
         <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3872,7 +3872,7 @@
         <v>156</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
@@ -3881,7 +3881,7 @@
         <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3895,16 +3895,16 @@
         <v>156</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         <v>156</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
@@ -3927,10 +3927,10 @@
         <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>159</v>
@@ -3941,7 +3941,7 @@
         <v>156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3950,10 +3950,10 @@
         <v>157</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>159</v>
@@ -3964,7 +3964,7 @@
         <v>156</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -3973,10 +3973,10 @@
         <v>157</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>159</v>
@@ -3987,7 +3987,7 @@
         <v>156</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -3996,7 +3996,7 @@
         <v>157</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>158</v>
@@ -4010,19 +4010,19 @@
         <v>156</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>159</v>
@@ -4033,7 +4033,7 @@
         <v>156</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>19</v>
@@ -4042,7 +4042,7 @@
         <v>157</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4056,19 +4056,19 @@
         <v>156</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>159</v>
@@ -4079,7 +4079,7 @@
         <v>156</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4088,7 +4088,7 @@
         <v>157</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>158</v>
@@ -4102,7 +4102,7 @@
         <v>156</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
@@ -4111,10 +4111,10 @@
         <v>157</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>159</v>
@@ -4125,7 +4125,7 @@
         <v>156</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4134,10 +4134,10 @@
         <v>157</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>159</v>
@@ -4148,7 +4148,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4157,10 +4157,10 @@
         <v>157</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>159</v>
@@ -4171,7 +4171,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4180,10 +4180,10 @@
         <v>157</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>159</v>
@@ -4194,7 +4194,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
@@ -4203,10 +4203,10 @@
         <v>157</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>159</v>
@@ -4217,7 +4217,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4226,10 +4226,10 @@
         <v>157</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>159</v>
@@ -4240,7 +4240,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
@@ -4249,7 +4249,7 @@
         <v>157</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>158</v>
@@ -4263,19 +4263,19 @@
         <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>159</v>
@@ -4286,7 +4286,7 @@
         <v>156</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>19</v>
@@ -4295,7 +4295,7 @@
         <v>157</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4309,7 +4309,7 @@
         <v>156</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>19</v>
@@ -4318,7 +4318,7 @@
         <v>157</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4329,25 +4329,25 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -4355,19 +4355,19 @@
         <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>32</v>
@@ -4378,19 +4378,19 @@
         <v>160</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>32</v>
@@ -4401,16 +4401,16 @@
         <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4424,44 +4424,21 @@
         <v>160</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -4013,7 +4013,7 @@
         <v>95</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>157</v>
@@ -4036,7 +4036,7 @@
         <v>97</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>157</v>
@@ -4045,7 +4045,7 @@
         <v>98</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>159</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -586,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1595,7 +1607,7 @@
         <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1604,7 +1616,7 @@
         <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1618,7 +1630,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1627,7 +1639,7 @@
         <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1641,7 +1653,7 @@
         <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1937,65 +1949,65 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2018,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2041,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2064,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2087,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2110,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2133,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2156,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2179,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2202,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2225,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2248,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2271,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2294,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2317,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2340,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2363,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2386,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2409,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2455,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2478,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2512,111 +2524,111 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2662,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2731,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2754,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2800,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2846,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2892,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2915,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2938,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2961,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2984,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3007,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3030,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3053,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3076,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3099,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3122,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3191,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3202,19 +3214,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3225,19 +3237,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3260,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3271,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3294,19 +3306,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3317,19 +3329,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3340,19 +3352,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3363,19 +3375,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3386,19 +3398,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3409,19 +3421,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3432,19 +3444,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3467,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3478,19 +3490,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3501,19 +3513,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3524,19 +3536,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3547,19 +3559,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3570,19 +3582,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3593,19 +3605,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3616,19 +3628,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3639,19 +3651,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3662,19 +3674,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3685,19 +3697,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3708,13 +3720,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>63</v>
@@ -3731,600 +3743,600 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163">
@@ -4332,22 +4344,22 @@
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E163" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -4355,22 +4367,22 @@
         <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G164" s="2" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
@@ -4378,22 +4390,22 @@
         <v>160</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166">
@@ -4401,22 +4413,22 @@
         <v>160</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167">
@@ -4424,21 +4436,205 @@
         <v>160</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>32</v>
       </c>
     </row>
